--- a/medicine/Enfance/Paul_Salmon_(écrivain)/Paul_Salmon_(écrivain).xlsx
+++ b/medicine/Enfance/Paul_Salmon_(écrivain)/Paul_Salmon_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paul_Salmon_(%C3%A9crivain)</t>
+          <t>Paul_Salmon_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Salmon, né le 26 mars 1884 et mort le 1er mars 1965, est un écrivain français, auteur de romans populaires et policiers et de littérature d'enfance et de jeunesse sous différents pseudonymes : Paul Darcy, Paul Dargens, Paul Dancray, Robert Navailles.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paul_Salmon_(%C3%A9crivain)</t>
+          <t>Paul_Salmon_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Écrivain prolifique, Paul Salmon est l'auteur de plus de 400 romans signés de son nom ou de l'un de ses quatre pseudonymes, ce qui lui permet d'écouler sa production. Il épouse en 1912 l’écrivaine Henriette Leenhouder dont il divorce 10 ans plus tard.
 Il a ensuite comme collaboratrice, secrétaire et deuxième épouse Léonce Prache, elle-même écrivaine de romans populaires dont les thématiques sont semblables à celles de son époux.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Paul_Salmon_(%C3%A9crivain)</t>
+          <t>Paul_Salmon_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Signés Paul Salmon
-La Guerre sous terre, Paris, Éditions de la Collection héroïque no 7, 1917
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Signés Paul Salmon</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Guerre sous terre, Paris, Éditions de la Collection héroïque no 7, 1917
 Le Serment des trois frères belges, Paris, Éditions de la Collection héroïque no 8, 1917
 Odyssée de quatre fusiliers marins, Paris, Éditions de la Collection héroïque no 9, 1917
 La Nièce du geôlier, Paris, Éditions de la Collection d'aventures no 171, 1920
@@ -562,9 +584,47 @@
 Le Cœur qui supplie, Paris, Ferenczi, coll. Mon livre favori no 651, 1933
 Pour ceux de France, Paris, Baudinière, 1931 ; réédition, Paris, E. Figuière, 1935
 Quand fleurit l'amour, Paris, Ferenczi, coll. Le Petit Livre no 1152, 1935
-Amour, ô divin maître, Paris, Ferenczi, coll. Mon livre favori no 903, 1938
-Signés Paul Darcy
-Suprême Tendresse, Paris, Librairie des romans choisis  no 18, 1916
+Amour, ô divin maître, Paris, Ferenczi, coll. Mon livre favori no 903, 1938</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Paul_Salmon_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Salmon_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Signés Paul Darcy</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Suprême Tendresse, Paris, Librairie des romans choisis  no 18, 1916
 L'Étoile du Penjab, Paris, Éditions de la Collection d'aventures, 1917
 Le Sanctuaire des Honcas, Paris, Éditions de la Collection d'aventures, 1917
 Quand l'amour chante, Paris, Librairie des romans choisis, Collection gauloise no 23, 1918
@@ -840,9 +900,47 @@
 Le Collier de Lady Sherwood, Lyon, Éditions du Puits-Pelu, coll. Le Glaive no 108, 1955
 À nous le fric, Lyon, Éditions du Puits-Pelu, coll. Le Glaive no 116, 1956
 Des garces, Monsieur !, Lyon, Jacquier, coll. La Loupe no 53, 1956
-Tout mon cœur pour t'aimer, Paris, Fayard, coll. Le Roman complet no 188, 1964
-Signés Paul Dargens
-La Douleur de vivre, Paris, Ferenczi, coll. Mon livre favori no 27, 1921
+Tout mon cœur pour t'aimer, Paris, Fayard, coll. Le Roman complet no 188, 1964</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Paul_Salmon_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Salmon_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Signés Paul Dargens</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Douleur de vivre, Paris, Ferenczi, coll. Mon livre favori no 27, 1921
 On meurt d'amour, Paris, Ferenczi, coll. Mon livre favori no 31, 1921
 L'amour a ses raisons, Paris, Ferenczi, coll. Le Petit Livre no 433, 1921
 Premier Amour, Première Ivresse, Paris, Ferenczi, coll. Le Petit Livre no 522, 1922
@@ -948,37 +1046,256 @@
 Le Maître de la forêt, Paris, Ferenczi, Mon roman d'aventures no 143, 1951
 L'Îlot du diable, Paris, Ferenczi, Mon roman d'aventures no 149, 1951
 La Randonnée maudite, Paris, Ferenczi, Mon roman d'aventures no 316, 1954
-Le Drame du vallon noir, Paris, Ferenczi, Mon roman d'aventures no 342, 1955
-Signés Paul Dancray
-Au pays des fakirs, Paris, France-Édition, 1924 ; réédition, Paris, Tallandier, coll. Livre national-Aventures et Voyages (2e série) no 64, 1925 ; réédition, Paris, Tallandier, coll. Les Chevaliers de l'Aventure (</t>
+Le Drame du vallon noir, Paris, Ferenczi, Mon roman d'aventures no 342, 1955</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Paul_Salmon_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Paul_Salmon_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Paul_Salmon_(%C3%A9crivain)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Signés Paul Dancray</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Au pays des fakirs, Paris, France-Édition, 1924 ; réédition, Paris, Tallandier, coll. Livre national-Aventures et Voyages (2e série) no 64, 1925 ; réédition, Paris, Tallandier, coll. Les Chevaliers de l'Aventure (2e série) no 21, 1933
+Les Rôdeurs de brousse, Paris, France-Édition, coll. Les Beaux Romans d'Aventures no 153-156, 1924 ; réédition, Paris, Tallandier, coll. Livre national-Aventures et Voyages (2e série) no 359, 1931
+Le Coffret aux saphirs, Paris, France-Édition, 1924 ; réédition, Paris, Tallandier, coll. Livre national-Aventures et Voyages (2e série) no 385, 1931
+Les Amours d'un modèle, Paris, Fayard, coll. Les Maîtres du roman populaire no 240, 1924
+Watahah, la mystérieuse, Paris, Tallandier, coll. Livre national-Aventures et Voyages (2e série) no 39, 1925 ; réédition, Paris, Tallandier, coll. Les Chevaliers de l'aventure no 34, 1932
+Les Millions du Tchantoung, Paris, Tallandier, coll. Livre national-Aventures et Voyages (2e série) no 52, 1925 ; réédition, Paris, Tallandier, coll. Les Chevaliers de l'aventure (2e série) no 42, 1934
+La Pagode au miroir d'argent, Paris, Tallandier, coll. Livre national-Aventures et Voyages (2e série) no 77, 1925 ; réédition, Paris, Tallandier, coll. Les Chevaliers de l'aventure no 25, 1932
+Juliane, Paris, Fayard, coll. Les Maîtres du roman populaire no 265, 1925
+Courtisane, Paris, Société anonyme d'imprimerie de la Goutte-d'Or, coll. Le Roman complet no 293, 1926
+Les Conquérants des mines d'argent, Paris, Tallandier, coll. Livre national-Aventures et Voyages (2e série) no 121, 1926 ; réédition, Paris, Tallandier, coll. Les Chevaliers de l'aventure no 42, 1932
+Chère petite femme, Paris, Rouff, Mon roman no 157, 1926
+Belle Idole, Paris, Rouff, Mon roman no 176, 1926
+Fille de danseuse, Paris, Fayard, coll. Les Maîtres du roman populaire no 310, 1927
+Le Roi des hommes rouges, Paris, Tallandier, coll. Livre national-Aventures et Voyages (2e série) no 156, 1927
+Les Maîtres de l'Himalaya, Paris, Tallandier, coll. Livre national-Aventures et Voyages (2e série) no 169, 1927 ; réédition, Paris, Tallandier, coll. Les Chevaliers de l'aventure (2e série) no 34, 1934
+Celle qu'on aime, Paris, Rouff, Mon roman no 215, 1927
+Jolie Dactylo, Paris, Rouff, coll. Le Livre illustré no 47, 1927
+Jack le rouge, roi des convicts, Paris, Tallandier, coll. Livre national-Aventures et Voyages (2e série) no 211, 1928
+De tout leur grand amour, Paris, Fayard, coll. Les Maîtres du roman populaire no 336, 1928
+Cruelle Épreuve, Paris, Rouff, Mon roman no 244, 1928
+Je vous avais donné mon cœur, Paris, Rouff, coll. Le Livre illustré no 77, 1928
+Le Crime des autres, Paris, Fayard, coll. Les Maîtres du roman populaire no 352, 1929
+Les Nuits d'amour de la Riviera, Paris, Fayard, coll. Les Maîtres du roman populaire no 368, 1929
+Le Démon fauve de Java, Paris, Tallandier, coll. Voyages lointains. Aventures étranges no 50, 1929
+Mon cœur n'a pas changé, Paris, Rouff, Mon roman no 340, 1929
+Le Sorcier du feu, Paris, Tallandier, coll. Livre national-Aventures et Voyages (2e série) no 315, 1930
+L'Île aux damnés, Paris, Tallandier, coll. Voyages lointains. Aventures étranges no 64, 1930
+Les Amants de Stamboul, Paris, Fayard, coll. Les Maîtres du roman populaire no 379, 1930 ; réédition, Paris, Fayard, coll. Le Roman complet no 125, 1948
+Rêve d'Orient, Rêve d'amour, Paris, Fayard, coll. Les Maîtres du roman populaire no 393, 1930
+La Première aimée, Paris, Rouff, Mon roman no 365, 1930
+Yvonne chérie, Paris, Rouff, Mon roman no 390, 1930
+La Dame de Venise, Paris, Fayard, coll. Les Maîtres du roman populaire no 410, 1931
+Le Pirate du Pacifique, Paris, Tallandier, coll. Livre national-Aventures et Voyages (2e série) no 372, 1931
+Les Révoltés de Wandpoor, Paris, Tallandier, coll. Voyages lointains. Aventures étranges no 97, 1931
+Au vertige du jazz, Paris, Fayard, coll. Les Maîtres du roman populaire no 427, 1932
+On refait sa vie, Paris, Fayard, coll. Les Maîtres du roman populaire no 436, 1932
+Le Petit Cœur de Gilberte, Paris, Rouff, coll. Le Roman complet no 36, 1932
+La Revanche de l'amour, Paris, Rouff, coll. Le Livre illustré no 126, 1933
+Jusqu'au crime, Paris, Fayard, coll. Les Maîtres du roman populaire no 446, 1933 ; réédition, Paris, Fayard, coll. Le Roman complet no 164, 1948
+Amour passé, tendresse présente, Paris, Fayard, coll. Les Maîtres du roman populaire no 457, 1933 ; réédition, Paris, Fayard, coll. Le Roman complet no 157, 1948
+La vie se venge, Paris, Rouff, Mon roman no 536, 1933
+Les Millions du squatter, Paris, Tallandier, coll. Les Chevaliers de l'aventure (2e série) no 3, 1933
+Joli Tyran, Paris, Rouff, Mon roman no 570, 1934
+Pour une femme, Paris, Rouff, Mon roman no 597, 1934
+Mireille, fleur de Provence, Paris, Fayard, coll. Les Maîtres du roman populaire no 468, 1934
+Une femme se souvient, Paris, Fayard, coll. Les Maîtres du roman populaire no 482, 1934
+Cœur féminin, éternelle énigme, Paris, Fayard, coll. Les Maîtres du roman populaire no 497, 1935
+Cambrioleuse et mondaine, Paris, Fayard, coll. Les Maîtres du roman populaire no 506, 1935
+L'Enfant de la faute, Paris, Rouff, Mon roman no 638, 1934
+Amour ! Misère ou Misère ! Amour, Paris, Rouff, coll. Le Livre illustré no 173, 1935
+Pour gagner ton amour, Paris, Fayard, coll. Les Maîtres du roman populaire no 516, 1936
+Fuir... ou chercher l'amour ?, Paris, Fayard, coll. Les Maîtres du roman populaire no 525, 1936
+L'Amour dans la tempête, Paris, Fayard, coll. Les Maîtres du roman populaire no 542, 1937
+L'Héroïque Marceau, Paris, Rouff, coll. L'Histoire vécue no 56, 1937
+Âmes ardentes, Paris, Fayard, coll. Les Maîtres du roman populaire (2e série) no 12, 1938
+Mon cœur gardait votre image, Paris, Fayard, coll. Les Maîtres du roman populaire (2e série) no 27, 1938
+Amours d'Orient, Paris, Rouff, coll. Les Romans de cœur no 19, 1938
+La Lettre d'amour, Paris, Rouff, coll. Les Romans de cœur no 54, 1938
+Le Masque de fer, Paris, Rouff, coll. L'Histoire vécue no 65, 1938
+Les Compagnons de la "Bannière bleue", Paris, Tallandier, coll. Le Livre d'aventures no 34, 1938
+Justice de femme, Paris, Fayard, coll. Les Maîtres du roman populaire (2e série) no 27, 1939
+Je te confie Suzy, Paris, Éditions Paul Dupont, coll. Sérénade d'amour, 1945
+Trois clous au talon, Paris, Éditions Paul Dupont, coll. S.O.S. no 6, 1946
+La Belle Cambrioleuse, Paris, Fayard, coll. Le Roman complet no 172, 1948
+Les Nuits de la Riviera, Paris, Fayard, coll. Le Roman complet no 185, 1948</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Paul_Salmon_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Salmon_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Signés Robert Navailles</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les Nuits de Couraprais-la-Vertu, Paris, Collection Gauloise no 37, 1918
+La Fée aux Fleurs, Paris, Fayard, coll. Les Maîtres du roman populaire no 307, 1927
+La Rançon du premier amour, Paris, Fayard, coll. Les Maîtres du roman populaire no 319, 1927
+Au pays sacré des Lamas, Paris, Tallandier Livre national-Aventures et Voyages no 188, 1927
+On croit aimer, Paris, Rouff, Mon roman no 307, 1929
+De l'une à l'autre, Paris, Rouff, coll. Le Livre illustré no 112, 1929
+Estrella, fille d'Espagne, Paris, Fayard, coll. Les Maîtres du roman populaire no 350, 1929
+Maîtresse de son cœur, Paris, Fayard, coll. Les Maîtres du roman populaire no 358, 1929
+Loin des regards jaloux, Paris, Fayard, coll. Les Maîtres du roman populaire no 377, 1930 ; réédition, Paris, Fayard, coll. Le Roman complet no 106, 1957
+Mauvais Cœur, Paris, Rouff, Mon roman no 371, 1930
+Amants, Paris, Rouff, Mon roman no 379, 1930
+Gismonda, Paris, Fayard, coll. Le Livre populaire no 254, 1930
+Les Amours des trois cadets de Champagne, Paris, Fayard, coll. Le Livre populaire no 259, 1930
+Si tu crois en moi, Paris, Rouff, Mon roman no 438, 1931
+L'Amour en danger, Paris, Fayard, coll. Les Maîtres du roman populaire no 449, 1933
+Réfugiés en notre tendresse, Paris, Fayard, coll. Les Maîtres du roman populaire no 458, 1933
+Pur Visage, Cœur méchant, Paris, Rouff, Le Livre illustré no 124, 1933
+Rivale de sa fille, Paris, Tallandier, 1933
+Le Mal de trop aimer, Paris, Tallandier, 1933
+Nid d'amour, Paris, Rouff, Mon roman no 525, 1933
+Passion de jeunesse, Paris, Fayard, coll. Les Maîtres du roman populaire no 471, 1934
+Mona, l'aventurière, Paris, Fayard, coll. Les Maîtres du roman populaire no 485, 1934
+Pour sauver son amour, Paris, Rouff, Le Livre illustré no 141, 1934
+Sous le signe du malheur, Paris, Fayard, coll. Les Maîtres du roman populaire no 493, 1935
+Tu seras mon dernier amour, Paris, Fayard, coll. Les Maîtres du roman populaire no 513, 1935
+Pour vous... rien que pour vous..., Paris, Rouff, Le Livre illustré no 171, 1935
+Reine de mon cœur, Paris, Fayard, coll. Les Maîtres du roman populaire no 523, 1936
+Le Roman d'une chauffeuse, Paris, Fayard, coll. Les Maîtres du roman populaire no 539, 1936
+L'Amour dont on meurt, Paris, Fayard, coll. Les Maîtres du roman populaire (2e série) no 7, 1938
+Janerose et son sourire, Paris, Fayard, coll. Les Maîtres du roman populaire (2e série) no 22, 1938
+Cela, c'est le bonheur, Paris, Rouff, Les Romans du cœur no 23, 1938
+L'Infernale Planète, Paris, Société française d'éditions et de publications illustrées, 1941
+La Plantation maudite, Paris, Société d'éditions générales, coll. Héros d'aventures, 1945
+Baisers menteurs, Amours sincères, Paris, Fayard, 1945</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Paul_Salmon_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Salmon_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres publications signées Paul Darcy</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Au service de la France en Russie, Paris, La Revue de Paris, 1927
+Pour la liberté des sociétés et la protection de l'épargne, Paris, Revue politique et parlementaire, 1930
+Mon copain de papa, Paris, Tallandier, coll. Cinéma-Bibliothèque no 496, 1932
+Pomme d'amour, Paris, Tallandier, coll. Cinéma-Bibliothèque no 570, 1932
+L'Allemagne toujours armée, Paris, Éditions des Portiques, 1933
+Qui gouverne l'Allemagne?, Paris, La Technique du livre, 1937
+Henry Darcy, inspecteur des ponts et chaussées, Dijon, Darantière, 1960</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Paul_Salmon_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Salmon_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Jacques Baudou et Jean-Jacques Schleret, Le Vrai Visage du Masque, vol. 1, Paris, Futuropolis, 1984, 476 p. (OCLC 311506692), p. 149-150.
 Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 1 : A - I, Nantes, Joseph K, coll. « Temps noir », 2007, 1054 p. (ISBN 978-2-910-68644-4, OCLC 315873251), p. 532-533.</t>
